--- a/Nana&Rene/MateriasPrimasTest.xlsx
+++ b/Nana&Rene/MateriasPrimasTest.xlsx
@@ -32,7 +32,7 @@
     <t>continua</t>
   </si>
   <si>
-    <t>0</t>
+    <t>1</t>
   </si>
   <si>
     <t>Manzana (unidad)</t>
